--- a/ADMON_DEL_PROYECTO/BITACORAS/2017/FEB/HOSPIPLANT_PRIMER PARCIAL.xlsx
+++ b/ADMON_DEL_PROYECTO/BITACORAS/2017/FEB/HOSPIPLANT_PRIMER PARCIAL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CANTINAS\Documents\GitHub\Hospiplant\ADMON_DEL_PROYECTO\BITACORAS\2017\ENE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CANTINAS\Documents\GitHub\Hospiplant\ADMON_DEL_PROYECTO\BITACORAS\2017\FEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7752" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="122">
   <si>
     <t>Periodo:</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>Login</t>
+  </si>
+  <si>
+    <t>Hospiplant.</t>
   </si>
 </sst>
 </file>
@@ -1167,6 +1170,17 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1176,14 +1190,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1198,31 +1204,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1234,23 +1234,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1279,15 +1297,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1300,28 +1309,22 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1794,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1"/>
@@ -1834,40 +1837,40 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="34.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="39.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="14.4">
@@ -12267,44 +12270,44 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="30.75" customHeight="1">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" ht="27" customHeight="1" thickBot="1">
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12" ht="14.4">
@@ -12320,13 +12323,13 @@
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -12336,13 +12339,13 @@
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -12352,13 +12355,13 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -12368,13 +12371,13 @@
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -12384,13 +12387,13 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="65">
         <v>3</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -12400,13 +12403,13 @@
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -12427,11 +12430,11 @@
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -12441,13 +12444,13 @@
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -12457,13 +12460,13 @@
       <c r="C15" s="5">
         <v>2</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -12473,13 +12476,13 @@
       <c r="C16" s="5">
         <v>3</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -12489,13 +12492,13 @@
       <c r="C17" s="5">
         <v>4</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -12505,13 +12508,13 @@
       <c r="C18" s="5">
         <v>5</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -20382,8 +20385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AJ996"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1"/>
@@ -20432,72 +20435,72 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:36" ht="34.5" customHeight="1">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="52"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="50"/>
     </row>
     <row r="3" spans="2:36" ht="33.75" customHeight="1">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="55"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="53"/>
     </row>
     <row r="4" spans="2:36" ht="15.75" customHeight="1">
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="58"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="56"/>
     </row>
     <row r="5" spans="2:36" ht="14.4">
       <c r="B5" s="1"/>
@@ -20522,12 +20525,12 @@
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="2:36" ht="14.4">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="52"/>
       <c r="E6" s="40" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="1"/>
@@ -20541,35 +20544,35 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="84">
+      <c r="P6" s="89">
         <v>42673</v>
       </c>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
     </row>
     <row r="7" spans="2:36" ht="47.25" customHeight="1">
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="90" t="s">
+      <c r="C7" s="99"/>
+      <c r="D7" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -20599,56 +20602,56 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="98" t="s">
+      <c r="D9" s="92"/>
+      <c r="E9" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="100" t="s">
+      <c r="F9" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="92"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="93"/>
-      <c r="AJ9" s="94"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="81"/>
+      <c r="AD9" s="81"/>
+      <c r="AE9" s="81"/>
+      <c r="AF9" s="81"/>
+      <c r="AG9" s="81"/>
+      <c r="AH9" s="81"/>
+      <c r="AI9" s="81"/>
+      <c r="AJ9" s="82"/>
     </row>
     <row r="10" spans="2:36" ht="14.4">
-      <c r="B10" s="69"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="24">
         <v>1</v>
       </c>
@@ -20741,14 +20744,14 @@
       </c>
     </row>
     <row r="11" spans="2:36" ht="14.4">
-      <c r="B11" s="68">
+      <c r="B11" s="66">
         <v>1</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="66" t="s">
+      <c r="D11" s="73"/>
+      <c r="E11" s="86" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="25" t="s">
@@ -20786,10 +20789,10 @@
       <c r="AJ11" s="28"/>
     </row>
     <row r="12" spans="2:36" ht="14.4">
-      <c r="B12" s="69"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="67"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="87"/>
       <c r="F12" s="25" t="s">
         <v>27</v>
       </c>
@@ -20825,14 +20828,14 @@
       <c r="AJ12" s="28"/>
     </row>
     <row r="13" spans="2:36" ht="14.4">
-      <c r="B13" s="68">
+      <c r="B13" s="66">
         <v>2</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="66" t="s">
+      <c r="D13" s="102"/>
+      <c r="E13" s="86" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="25" t="s">
@@ -20870,10 +20873,10 @@
       <c r="AJ13" s="28"/>
     </row>
     <row r="14" spans="2:36" ht="14.4">
-      <c r="B14" s="69"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="87"/>
       <c r="F14" s="25" t="s">
         <v>27</v>
       </c>
@@ -20909,14 +20912,14 @@
       <c r="AJ14" s="28"/>
     </row>
     <row r="15" spans="2:36" ht="14.4">
-      <c r="B15" s="68">
+      <c r="B15" s="66">
         <v>3</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="66" t="s">
+      <c r="D15" s="73"/>
+      <c r="E15" s="86" t="s">
         <v>62</v>
       </c>
       <c r="F15" s="25" t="s">
@@ -20954,10 +20957,10 @@
       <c r="AJ15" s="28"/>
     </row>
     <row r="16" spans="2:36" ht="14.4">
-      <c r="B16" s="69"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="87"/>
       <c r="F16" s="25" t="s">
         <v>27</v>
       </c>
@@ -20993,14 +20996,14 @@
       <c r="AJ16" s="28"/>
     </row>
     <row r="17" spans="2:36" ht="14.4">
-      <c r="B17" s="68">
+      <c r="B17" s="66">
         <v>4</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="66" t="s">
+      <c r="D17" s="73"/>
+      <c r="E17" s="86" t="s">
         <v>63</v>
       </c>
       <c r="F17" s="25" t="s">
@@ -21038,10 +21041,10 @@
       <c r="AJ17" s="28"/>
     </row>
     <row r="18" spans="2:36" ht="14.4">
-      <c r="B18" s="69"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="87"/>
       <c r="F18" s="25" t="s">
         <v>27</v>
       </c>
@@ -21077,14 +21080,14 @@
       <c r="AJ18" s="28"/>
     </row>
     <row r="19" spans="2:36" ht="14.4">
-      <c r="B19" s="68">
+      <c r="B19" s="66">
         <v>5</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="66" t="s">
+      <c r="D19" s="73"/>
+      <c r="E19" s="86" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="25" t="s">
@@ -21122,10 +21125,10 @@
       <c r="AJ19" s="28"/>
     </row>
     <row r="20" spans="2:36" ht="14.4">
-      <c r="B20" s="69"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="87"/>
       <c r="F20" s="25" t="s">
         <v>27</v>
       </c>
@@ -21161,14 +21164,14 @@
       <c r="AJ20" s="28"/>
     </row>
     <row r="21" spans="2:36" ht="14.4">
-      <c r="B21" s="68">
+      <c r="B21" s="66">
         <v>6</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="74"/>
-      <c r="E21" s="66" t="s">
+      <c r="D21" s="73"/>
+      <c r="E21" s="86" t="s">
         <v>65</v>
       </c>
       <c r="F21" s="25" t="s">
@@ -21206,10 +21209,10 @@
       <c r="AJ21" s="28"/>
     </row>
     <row r="22" spans="2:36" ht="14.4">
-      <c r="B22" s="69"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="87"/>
       <c r="F22" s="25" t="s">
         <v>27</v>
       </c>
@@ -21245,14 +21248,14 @@
       <c r="AJ22" s="28"/>
     </row>
     <row r="23" spans="2:36" ht="14.4">
-      <c r="B23" s="68">
+      <c r="B23" s="66">
         <v>7</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="66" t="s">
+      <c r="D23" s="106"/>
+      <c r="E23" s="86" t="s">
         <v>66</v>
       </c>
       <c r="F23" s="25" t="s">
@@ -21290,10 +21293,10 @@
       <c r="AJ23" s="28"/>
     </row>
     <row r="24" spans="2:36" ht="14.4">
-      <c r="B24" s="69"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="25" t="s">
         <v>27</v>
       </c>
@@ -21329,14 +21332,14 @@
       <c r="AJ24" s="28"/>
     </row>
     <row r="25" spans="2:36" ht="14.4">
-      <c r="B25" s="68">
+      <c r="B25" s="66">
         <v>8</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="82"/>
-      <c r="E25" s="66" t="s">
+      <c r="D25" s="69"/>
+      <c r="E25" s="86" t="s">
         <v>67</v>
       </c>
       <c r="F25" s="25" t="s">
@@ -21374,10 +21377,10 @@
       <c r="AJ25" s="28"/>
     </row>
     <row r="26" spans="2:36" ht="14.4">
-      <c r="B26" s="69"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="87"/>
       <c r="F26" s="25" t="s">
         <v>27</v>
       </c>
@@ -21413,14 +21416,14 @@
       <c r="AJ26" s="28"/>
     </row>
     <row r="27" spans="2:36" ht="14.4">
-      <c r="B27" s="68">
+      <c r="B27" s="66">
         <v>9</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="82"/>
-      <c r="E27" s="102" t="s">
+      <c r="D27" s="69"/>
+      <c r="E27" s="84" t="s">
         <v>91</v>
       </c>
       <c r="F27" s="25" t="s">
@@ -21458,10 +21461,10 @@
       <c r="AJ27" s="28"/>
     </row>
     <row r="28" spans="2:36" ht="14.4">
-      <c r="B28" s="69"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="99"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="85"/>
       <c r="F28" s="25" t="s">
         <v>27</v>
       </c>
@@ -21497,14 +21500,14 @@
       <c r="AJ28" s="28"/>
     </row>
     <row r="29" spans="2:36" ht="14.4">
-      <c r="B29" s="68">
+      <c r="B29" s="66">
         <v>10</v>
       </c>
-      <c r="C29" s="103" t="s">
+      <c r="C29" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="102" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="84" t="s">
         <v>84</v>
       </c>
       <c r="F29" s="25" t="s">
@@ -21542,10 +21545,10 @@
       <c r="AJ29" s="28"/>
     </row>
     <row r="30" spans="2:36" ht="14.4">
-      <c r="B30" s="69"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="99"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="85"/>
       <c r="F30" s="25" t="s">
         <v>27</v>
       </c>
@@ -21581,14 +21584,14 @@
       <c r="AJ30" s="28"/>
     </row>
     <row r="31" spans="2:36" ht="14.4">
-      <c r="B31" s="68">
+      <c r="B31" s="66">
         <v>11</v>
       </c>
-      <c r="C31" s="103" t="s">
+      <c r="C31" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="68" t="s">
+      <c r="D31" s="69"/>
+      <c r="E31" s="66" t="s">
         <v>85</v>
       </c>
       <c r="F31" s="25" t="s">
@@ -21626,10 +21629,10 @@
       <c r="AJ31" s="28"/>
     </row>
     <row r="32" spans="2:36" ht="14.4">
-      <c r="B32" s="69"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="69"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="67"/>
       <c r="F32" s="25" t="s">
         <v>27</v>
       </c>
@@ -21665,14 +21668,14 @@
       <c r="AJ32" s="28"/>
     </row>
     <row r="33" spans="2:36" ht="14.4">
-      <c r="B33" s="68">
+      <c r="B33" s="66">
         <v>12</v>
       </c>
-      <c r="C33" s="103" t="s">
+      <c r="C33" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="82"/>
-      <c r="E33" s="68" t="s">
+      <c r="D33" s="69"/>
+      <c r="E33" s="66" t="s">
         <v>95</v>
       </c>
       <c r="F33" s="25" t="s">
@@ -21710,10 +21713,10 @@
       <c r="AJ33" s="28"/>
     </row>
     <row r="34" spans="2:36" ht="14.4">
-      <c r="B34" s="69"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="101"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="76"/>
       <c r="F34" s="25" t="s">
         <v>27</v>
       </c>
@@ -21749,14 +21752,14 @@
       <c r="AJ34" s="28"/>
     </row>
     <row r="35" spans="2:36" ht="14.4">
-      <c r="B35" s="68">
+      <c r="B35" s="66">
         <v>13</v>
       </c>
-      <c r="C35" s="81" t="s">
+      <c r="C35" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="82"/>
-      <c r="E35" s="68" t="s">
+      <c r="D35" s="69"/>
+      <c r="E35" s="66" t="s">
         <v>114</v>
       </c>
       <c r="F35" s="25" t="s">
@@ -21794,10 +21797,10 @@
       <c r="AJ35" s="28"/>
     </row>
     <row r="36" spans="2:36" ht="14.4">
-      <c r="B36" s="69"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="69"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="67"/>
       <c r="F36" s="25" t="s">
         <v>27</v>
       </c>
@@ -21833,14 +21836,14 @@
       <c r="AJ36" s="28"/>
     </row>
     <row r="37" spans="2:36" ht="14.4">
-      <c r="B37" s="68">
+      <c r="B37" s="66">
         <v>14</v>
       </c>
-      <c r="C37" s="103" t="s">
+      <c r="C37" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="104"/>
-      <c r="E37" s="68" t="s">
+      <c r="D37" s="77"/>
+      <c r="E37" s="66" t="s">
         <v>106</v>
       </c>
       <c r="F37" s="25" t="s">
@@ -21878,10 +21881,10 @@
       <c r="AJ37" s="28"/>
     </row>
     <row r="38" spans="2:36" ht="14.4">
-      <c r="B38" s="69"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="69"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="67"/>
       <c r="F38" s="25" t="s">
         <v>27</v>
       </c>
@@ -21917,14 +21920,14 @@
       <c r="AJ38" s="28"/>
     </row>
     <row r="39" spans="2:36" ht="14.4">
-      <c r="B39" s="68">
+      <c r="B39" s="66">
         <v>15</v>
       </c>
-      <c r="C39" s="81" t="s">
+      <c r="C39" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="82"/>
-      <c r="E39" s="68" t="s">
+      <c r="D39" s="69"/>
+      <c r="E39" s="66" t="s">
         <v>108</v>
       </c>
       <c r="F39" s="25" t="s">
@@ -21962,10 +21965,10 @@
       <c r="AJ39" s="28"/>
     </row>
     <row r="40" spans="2:36" ht="14.4">
-      <c r="B40" s="69"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="69"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="67"/>
       <c r="F40" s="25" t="s">
         <v>27</v>
       </c>
@@ -22001,14 +22004,14 @@
       <c r="AJ40" s="28"/>
     </row>
     <row r="41" spans="2:36" ht="14.4">
-      <c r="B41" s="68">
+      <c r="B41" s="66">
         <v>16</v>
       </c>
-      <c r="C41" s="103" t="s">
+      <c r="C41" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="82"/>
-      <c r="E41" s="68" t="s">
+      <c r="D41" s="69"/>
+      <c r="E41" s="66" t="s">
         <v>118</v>
       </c>
       <c r="F41" s="25" t="s">
@@ -22046,10 +22049,10 @@
       <c r="AJ41" s="28"/>
     </row>
     <row r="42" spans="2:36" ht="14.4">
-      <c r="B42" s="69"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="69"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="67"/>
       <c r="F42" s="25" t="s">
         <v>27</v>
       </c>
@@ -22085,14 +22088,14 @@
       <c r="AJ42" s="28"/>
     </row>
     <row r="43" spans="2:36" ht="14.4">
-      <c r="B43" s="68">
+      <c r="B43" s="66">
         <v>17</v>
       </c>
-      <c r="C43" s="103" t="s">
+      <c r="C43" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="82"/>
-      <c r="E43" s="68" t="s">
+      <c r="D43" s="69"/>
+      <c r="E43" s="66" t="s">
         <v>111</v>
       </c>
       <c r="F43" s="25" t="s">
@@ -22130,10 +22133,10 @@
       <c r="AJ43" s="28"/>
     </row>
     <row r="44" spans="2:36" ht="14.4">
-      <c r="B44" s="69"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="69"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="67"/>
       <c r="F44" s="25" t="s">
         <v>27</v>
       </c>
@@ -22169,14 +22172,14 @@
       <c r="AJ44" s="28"/>
     </row>
     <row r="45" spans="2:36" ht="14.4">
-      <c r="B45" s="68">
+      <c r="B45" s="66">
         <v>18</v>
       </c>
-      <c r="C45" s="103" t="s">
+      <c r="C45" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="82"/>
-      <c r="E45" s="68" t="s">
+      <c r="D45" s="69"/>
+      <c r="E45" s="66" t="s">
         <v>120</v>
       </c>
       <c r="F45" s="25" t="s">
@@ -22214,10 +22217,10 @@
       <c r="AJ45" s="28"/>
     </row>
     <row r="46" spans="2:36" ht="14.4">
-      <c r="B46" s="69"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="101"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="76"/>
       <c r="F46" s="25" t="s">
         <v>27</v>
       </c>
@@ -43154,41 +43157,20 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="V9:AJ9"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="E37:E38"/>
@@ -43205,20 +43187,41 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="V9:AJ9"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ADMON_DEL_PROYECTO/BITACORAS/2017/FEB/HOSPIPLANT_PRIMER PARCIAL.xlsx
+++ b/ADMON_DEL_PROYECTO/BITACORAS/2017/FEB/HOSPIPLANT_PRIMER PARCIAL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CANTINAS\Documents\GitHub\Hospiplant\ADMON_DEL_PROYECTO\BITACORAS\2017\FEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CANTINAS\Documents\GitHub\Hospiplant\ADMON_DEL_PROYECTO\BITACORAS\2017\ENE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7752" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="121">
   <si>
     <t>Periodo:</t>
   </si>
@@ -491,9 +491,6 @@
   </si>
   <si>
     <t>Login</t>
-  </si>
-  <si>
-    <t>Hospiplant.</t>
   </si>
 </sst>
 </file>
@@ -1170,8 +1167,14 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1181,15 +1184,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1204,25 +1198,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1234,41 +1234,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1297,6 +1279,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1309,22 +1300,28 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1797,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1"/>
@@ -1837,40 +1834,40 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="34.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="39.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="14.4">
@@ -12270,44 +12267,44 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="30.75" customHeight="1">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" ht="27" customHeight="1" thickBot="1">
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12" ht="14.4">
@@ -12323,13 +12320,13 @@
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -12339,13 +12336,13 @@
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -12355,13 +12352,13 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -12371,13 +12368,13 @@
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -12387,13 +12384,13 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="64">
         <v>3</v>
       </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -12403,13 +12400,13 @@
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -12430,11 +12427,11 @@
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -12444,13 +12441,13 @@
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -12460,13 +12457,13 @@
       <c r="C15" s="5">
         <v>2</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -12476,13 +12473,13 @@
       <c r="C16" s="5">
         <v>3</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -12492,13 +12489,13 @@
       <c r="C17" s="5">
         <v>4</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -12508,13 +12505,13 @@
       <c r="C18" s="5">
         <v>5</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -20385,8 +20382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AJ996"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1"/>
@@ -20435,72 +20432,72 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:36" ht="34.5" customHeight="1">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="52"/>
     </row>
     <row r="3" spans="2:36" ht="33.75" customHeight="1">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="55"/>
     </row>
     <row r="4" spans="2:36" ht="15.75" customHeight="1">
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="58"/>
     </row>
     <row r="5" spans="2:36" ht="14.4">
       <c r="B5" s="1"/>
@@ -20525,12 +20522,12 @@
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="2:36" ht="14.4">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="54"/>
       <c r="E6" s="40" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="1"/>
@@ -20544,35 +20541,35 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="89">
+      <c r="P6" s="84">
         <v>42673</v>
       </c>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
     </row>
     <row r="7" spans="2:36" ht="47.25" customHeight="1">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="95" t="s">
+      <c r="C7" s="97"/>
+      <c r="D7" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -20602,56 +20599,56 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="100" t="s">
+      <c r="D9" s="87"/>
+      <c r="E9" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="101" t="s">
+      <c r="F9" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="81"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="81"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="81"/>
-      <c r="AB9" s="81"/>
-      <c r="AC9" s="81"/>
-      <c r="AD9" s="81"/>
-      <c r="AE9" s="81"/>
-      <c r="AF9" s="81"/>
-      <c r="AG9" s="81"/>
-      <c r="AH9" s="81"/>
-      <c r="AI9" s="81"/>
-      <c r="AJ9" s="82"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="93"/>
+      <c r="AJ9" s="94"/>
     </row>
     <row r="10" spans="2:36" ht="14.4">
-      <c r="B10" s="67"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
       <c r="G10" s="24">
         <v>1</v>
       </c>
@@ -20744,14 +20741,14 @@
       </c>
     </row>
     <row r="11" spans="2:36" ht="14.4">
-      <c r="B11" s="66">
+      <c r="B11" s="68">
         <v>1</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="86" t="s">
+      <c r="D11" s="74"/>
+      <c r="E11" s="66" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="25" t="s">
@@ -20789,10 +20786,10 @@
       <c r="AJ11" s="28"/>
     </row>
     <row r="12" spans="2:36" ht="14.4">
-      <c r="B12" s="67"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="87"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="25" t="s">
         <v>27</v>
       </c>
@@ -20828,14 +20825,14 @@
       <c r="AJ12" s="28"/>
     </row>
     <row r="13" spans="2:36" ht="14.4">
-      <c r="B13" s="66">
+      <c r="B13" s="68">
         <v>2</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="86" t="s">
+      <c r="D13" s="71"/>
+      <c r="E13" s="66" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="25" t="s">
@@ -20873,10 +20870,10 @@
       <c r="AJ13" s="28"/>
     </row>
     <row r="14" spans="2:36" ht="14.4">
-      <c r="B14" s="67"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="87"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="25" t="s">
         <v>27</v>
       </c>
@@ -20912,14 +20909,14 @@
       <c r="AJ14" s="28"/>
     </row>
     <row r="15" spans="2:36" ht="14.4">
-      <c r="B15" s="66">
+      <c r="B15" s="68">
         <v>3</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="86" t="s">
+      <c r="D15" s="74"/>
+      <c r="E15" s="66" t="s">
         <v>62</v>
       </c>
       <c r="F15" s="25" t="s">
@@ -20957,10 +20954,10 @@
       <c r="AJ15" s="28"/>
     </row>
     <row r="16" spans="2:36" ht="14.4">
-      <c r="B16" s="67"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="87"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="67"/>
       <c r="F16" s="25" t="s">
         <v>27</v>
       </c>
@@ -20996,14 +20993,14 @@
       <c r="AJ16" s="28"/>
     </row>
     <row r="17" spans="2:36" ht="14.4">
-      <c r="B17" s="66">
+      <c r="B17" s="68">
         <v>4</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="86" t="s">
+      <c r="D17" s="74"/>
+      <c r="E17" s="66" t="s">
         <v>63</v>
       </c>
       <c r="F17" s="25" t="s">
@@ -21041,10 +21038,10 @@
       <c r="AJ17" s="28"/>
     </row>
     <row r="18" spans="2:36" ht="14.4">
-      <c r="B18" s="67"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="87"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="67"/>
       <c r="F18" s="25" t="s">
         <v>27</v>
       </c>
@@ -21080,14 +21077,14 @@
       <c r="AJ18" s="28"/>
     </row>
     <row r="19" spans="2:36" ht="14.4">
-      <c r="B19" s="66">
+      <c r="B19" s="68">
         <v>5</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="86" t="s">
+      <c r="D19" s="74"/>
+      <c r="E19" s="66" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="25" t="s">
@@ -21125,10 +21122,10 @@
       <c r="AJ19" s="28"/>
     </row>
     <row r="20" spans="2:36" ht="14.4">
-      <c r="B20" s="67"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="87"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="67"/>
       <c r="F20" s="25" t="s">
         <v>27</v>
       </c>
@@ -21164,14 +21161,14 @@
       <c r="AJ20" s="28"/>
     </row>
     <row r="21" spans="2:36" ht="14.4">
-      <c r="B21" s="66">
+      <c r="B21" s="68">
         <v>6</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="86" t="s">
+      <c r="D21" s="74"/>
+      <c r="E21" s="66" t="s">
         <v>65</v>
       </c>
       <c r="F21" s="25" t="s">
@@ -21209,10 +21206,10 @@
       <c r="AJ21" s="28"/>
     </row>
     <row r="22" spans="2:36" ht="14.4">
-      <c r="B22" s="67"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="87"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="67"/>
       <c r="F22" s="25" t="s">
         <v>27</v>
       </c>
@@ -21248,14 +21245,14 @@
       <c r="AJ22" s="28"/>
     </row>
     <row r="23" spans="2:36" ht="14.4">
-      <c r="B23" s="66">
+      <c r="B23" s="68">
         <v>7</v>
       </c>
-      <c r="C23" s="105" t="s">
+      <c r="C23" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="106"/>
-      <c r="E23" s="86" t="s">
+      <c r="D23" s="78"/>
+      <c r="E23" s="66" t="s">
         <v>66</v>
       </c>
       <c r="F23" s="25" t="s">
@@ -21293,10 +21290,10 @@
       <c r="AJ23" s="28"/>
     </row>
     <row r="24" spans="2:36" ht="14.4">
-      <c r="B24" s="67"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="87"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="67"/>
       <c r="F24" s="25" t="s">
         <v>27</v>
       </c>
@@ -21332,14 +21329,14 @@
       <c r="AJ24" s="28"/>
     </row>
     <row r="25" spans="2:36" ht="14.4">
-      <c r="B25" s="66">
+      <c r="B25" s="68">
         <v>8</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="86" t="s">
+      <c r="D25" s="82"/>
+      <c r="E25" s="66" t="s">
         <v>67</v>
       </c>
       <c r="F25" s="25" t="s">
@@ -21377,10 +21374,10 @@
       <c r="AJ25" s="28"/>
     </row>
     <row r="26" spans="2:36" ht="14.4">
-      <c r="B26" s="67"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="87"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="67"/>
       <c r="F26" s="25" t="s">
         <v>27</v>
       </c>
@@ -21416,14 +21413,14 @@
       <c r="AJ26" s="28"/>
     </row>
     <row r="27" spans="2:36" ht="14.4">
-      <c r="B27" s="66">
+      <c r="B27" s="68">
         <v>9</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="84" t="s">
+      <c r="D27" s="82"/>
+      <c r="E27" s="102" t="s">
         <v>91</v>
       </c>
       <c r="F27" s="25" t="s">
@@ -21461,10 +21458,10 @@
       <c r="AJ27" s="28"/>
     </row>
     <row r="28" spans="2:36" ht="14.4">
-      <c r="B28" s="67"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="85"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="99"/>
       <c r="F28" s="25" t="s">
         <v>27</v>
       </c>
@@ -21500,14 +21497,14 @@
       <c r="AJ28" s="28"/>
     </row>
     <row r="29" spans="2:36" ht="14.4">
-      <c r="B29" s="66">
+      <c r="B29" s="68">
         <v>10</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="84" t="s">
+      <c r="D29" s="82"/>
+      <c r="E29" s="102" t="s">
         <v>84</v>
       </c>
       <c r="F29" s="25" t="s">
@@ -21545,10 +21542,10 @@
       <c r="AJ29" s="28"/>
     </row>
     <row r="30" spans="2:36" ht="14.4">
-      <c r="B30" s="67"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="85"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="99"/>
       <c r="F30" s="25" t="s">
         <v>27</v>
       </c>
@@ -21584,14 +21581,14 @@
       <c r="AJ30" s="28"/>
     </row>
     <row r="31" spans="2:36" ht="14.4">
-      <c r="B31" s="66">
+      <c r="B31" s="68">
         <v>11</v>
       </c>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="66" t="s">
+      <c r="D31" s="82"/>
+      <c r="E31" s="68" t="s">
         <v>85</v>
       </c>
       <c r="F31" s="25" t="s">
@@ -21629,10 +21626,10 @@
       <c r="AJ31" s="28"/>
     </row>
     <row r="32" spans="2:36" ht="14.4">
-      <c r="B32" s="67"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="67"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="69"/>
       <c r="F32" s="25" t="s">
         <v>27</v>
       </c>
@@ -21668,14 +21665,14 @@
       <c r="AJ32" s="28"/>
     </row>
     <row r="33" spans="2:36" ht="14.4">
-      <c r="B33" s="66">
+      <c r="B33" s="68">
         <v>12</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="66" t="s">
+      <c r="D33" s="82"/>
+      <c r="E33" s="68" t="s">
         <v>95</v>
       </c>
       <c r="F33" s="25" t="s">
@@ -21713,10 +21710,10 @@
       <c r="AJ33" s="28"/>
     </row>
     <row r="34" spans="2:36" ht="14.4">
-      <c r="B34" s="67"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="76"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="101"/>
       <c r="F34" s="25" t="s">
         <v>27</v>
       </c>
@@ -21752,14 +21749,14 @@
       <c r="AJ34" s="28"/>
     </row>
     <row r="35" spans="2:36" ht="14.4">
-      <c r="B35" s="66">
+      <c r="B35" s="68">
         <v>13</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="69"/>
-      <c r="E35" s="66" t="s">
+      <c r="D35" s="82"/>
+      <c r="E35" s="68" t="s">
         <v>114</v>
       </c>
       <c r="F35" s="25" t="s">
@@ -21797,10 +21794,10 @@
       <c r="AJ35" s="28"/>
     </row>
     <row r="36" spans="2:36" ht="14.4">
-      <c r="B36" s="67"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="67"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="69"/>
       <c r="F36" s="25" t="s">
         <v>27</v>
       </c>
@@ -21836,14 +21833,14 @@
       <c r="AJ36" s="28"/>
     </row>
     <row r="37" spans="2:36" ht="14.4">
-      <c r="B37" s="66">
+      <c r="B37" s="68">
         <v>14</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="77"/>
-      <c r="E37" s="66" t="s">
+      <c r="D37" s="104"/>
+      <c r="E37" s="68" t="s">
         <v>106</v>
       </c>
       <c r="F37" s="25" t="s">
@@ -21881,10 +21878,10 @@
       <c r="AJ37" s="28"/>
     </row>
     <row r="38" spans="2:36" ht="14.4">
-      <c r="B38" s="67"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="67"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="69"/>
       <c r="F38" s="25" t="s">
         <v>27</v>
       </c>
@@ -21920,14 +21917,14 @@
       <c r="AJ38" s="28"/>
     </row>
     <row r="39" spans="2:36" ht="14.4">
-      <c r="B39" s="66">
+      <c r="B39" s="68">
         <v>15</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="69"/>
-      <c r="E39" s="66" t="s">
+      <c r="D39" s="82"/>
+      <c r="E39" s="68" t="s">
         <v>108</v>
       </c>
       <c r="F39" s="25" t="s">
@@ -21965,10 +21962,10 @@
       <c r="AJ39" s="28"/>
     </row>
     <row r="40" spans="2:36" ht="14.4">
-      <c r="B40" s="67"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="67"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="69"/>
       <c r="F40" s="25" t="s">
         <v>27</v>
       </c>
@@ -22004,14 +22001,14 @@
       <c r="AJ40" s="28"/>
     </row>
     <row r="41" spans="2:36" ht="14.4">
-      <c r="B41" s="66">
+      <c r="B41" s="68">
         <v>16</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="69"/>
-      <c r="E41" s="66" t="s">
+      <c r="D41" s="82"/>
+      <c r="E41" s="68" t="s">
         <v>118</v>
       </c>
       <c r="F41" s="25" t="s">
@@ -22049,10 +22046,10 @@
       <c r="AJ41" s="28"/>
     </row>
     <row r="42" spans="2:36" ht="14.4">
-      <c r="B42" s="67"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="67"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="69"/>
       <c r="F42" s="25" t="s">
         <v>27</v>
       </c>
@@ -22088,14 +22085,14 @@
       <c r="AJ42" s="28"/>
     </row>
     <row r="43" spans="2:36" ht="14.4">
-      <c r="B43" s="66">
+      <c r="B43" s="68">
         <v>17</v>
       </c>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="69"/>
-      <c r="E43" s="66" t="s">
+      <c r="D43" s="82"/>
+      <c r="E43" s="68" t="s">
         <v>111</v>
       </c>
       <c r="F43" s="25" t="s">
@@ -22133,10 +22130,10 @@
       <c r="AJ43" s="28"/>
     </row>
     <row r="44" spans="2:36" ht="14.4">
-      <c r="B44" s="67"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="67"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="69"/>
       <c r="F44" s="25" t="s">
         <v>27</v>
       </c>
@@ -22172,14 +22169,14 @@
       <c r="AJ44" s="28"/>
     </row>
     <row r="45" spans="2:36" ht="14.4">
-      <c r="B45" s="66">
+      <c r="B45" s="68">
         <v>18</v>
       </c>
-      <c r="C45" s="68" t="s">
+      <c r="C45" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="69"/>
-      <c r="E45" s="66" t="s">
+      <c r="D45" s="82"/>
+      <c r="E45" s="68" t="s">
         <v>120</v>
       </c>
       <c r="F45" s="25" t="s">
@@ -22217,10 +22214,10 @@
       <c r="AJ45" s="28"/>
     </row>
     <row r="46" spans="2:36" ht="14.4">
-      <c r="B46" s="67"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="76"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="101"/>
       <c r="F46" s="25" t="s">
         <v>27</v>
       </c>
@@ -43157,20 +43154,41 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="V9:AJ9"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E43:E44"/>
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="E37:E38"/>
@@ -43187,41 +43205,20 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="V9:AJ9"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
